--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 40399-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 40399-2018.xlsx", "A 40399-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 40399-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 40399-2018.png", "A 40399-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 40399-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 40399-2018.docx", "A 40399-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 40399-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 40399-2018.docx", "A 40399-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 40399-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 40399-2018.docx", "A 40399-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 40399-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 40399-2018.docx", "A 40399-2018")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -711,27 +711,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 65506-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 65506-2020.xlsx", "A 65506-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 65506-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 65506-2020.png", "A 65506-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 65506-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 65506-2020.docx", "A 65506-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 65506-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 65506-2020.docx", "A 65506-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 65506-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 65506-2020.docx", "A 65506-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 65506-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 65506-2020.docx", "A 65506-2020")</f>
         <v/>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -797,27 +797,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 31843-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 31843-2021.xlsx", "A 31843-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 31843-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 31843-2021.png", "A 31843-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 31843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 31843-2021.docx", "A 31843-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 31843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 31843-2021.docx", "A 31843-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 31843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 31843-2021.docx", "A 31843-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 31843-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 31843-2021.docx", "A 31843-2021")</f>
         <v/>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,27 +882,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 57212-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 57212-2018.xlsx", "A 57212-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 57212-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 57212-2018.png", "A 57212-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 57212-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 57212-2018.docx", "A 57212-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 57212-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 57212-2018.docx", "A 57212-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 57212-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 57212-2018.docx", "A 57212-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 57212-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 57212-2018.docx", "A 57212-2018")</f>
         <v/>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -967,27 +967,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 62092-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 62092-2018.xlsx", "A 62092-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 62092-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 62092-2018.png", "A 62092-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 62092-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 62092-2018.docx", "A 62092-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 62092-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 62092-2018.docx", "A 62092-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 62092-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 62092-2018.docx", "A 62092-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 62092-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 62092-2018.docx", "A 62092-2018")</f>
         <v/>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,27 +1052,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 51541-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 51541-2020.xlsx", "A 51541-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 51541-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 51541-2020.png", "A 51541-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 51541-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 51541-2020.docx", "A 51541-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 51541-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 51541-2020.docx", "A 51541-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 51541-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 51541-2020.docx", "A 51541-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 51541-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 51541-2020.docx", "A 51541-2020")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 65581-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 65581-2020.xlsx", "A 65581-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 65581-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 65581-2020.png", "A 65581-2020")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/knärot/A 65581-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/knärot/A 65581-2020.png", "A 65581-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 65581-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 65581-2020.docx", "A 65581-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 65581-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 65581-2020.docx", "A 65581-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 65581-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 65581-2020.docx", "A 65581-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 65581-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 65581-2020.docx", "A 65581-2020")</f>
         <v/>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,27 +1231,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 30777-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 30777-2023.xlsx", "A 30777-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 30777-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 30777-2023.png", "A 30777-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 30777-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 30777-2023.docx", "A 30777-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 30777-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 30777-2023.docx", "A 30777-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 30777-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 30777-2023.docx", "A 30777-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 30777-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 30777-2023.docx", "A 30777-2023")</f>
         <v/>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1316,27 +1316,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 30785-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 30785-2023.xlsx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 30785-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 30785-2023.png", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 30785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 30785-2023.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 30785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 30785-2023.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 30785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 30785-2023.docx", "A 30785-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 30785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 30785-2023.docx", "A 30785-2023")</f>
         <v/>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,27 +1401,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 30666-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 30666-2023.xlsx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 30666-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 30666-2023.png", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 30666-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 30666-2023.docx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 30666-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 30666-2023.docx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 30666-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 30666-2023.docx", "A 30666-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 30666-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 30666-2023.docx", "A 30666-2023")</f>
         <v/>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1486,31 +1486,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 30671-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 30671-2023.xlsx", "A 30671-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 30671-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 30671-2023.png", "A 30671-2023")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/knärot/A 30671-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/knärot/A 30671-2023.png", "A 30671-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 30671-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 30671-2023.docx", "A 30671-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 30671-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 30671-2023.docx", "A 30671-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 30671-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 30671-2023.docx", "A 30671-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 30671-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 30671-2023.docx", "A 30671-2023")</f>
         <v/>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,27 +1575,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 31742-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/artfynd/A 31742-2023.xlsx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 31742-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/kartor/A 31742-2023.png", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 31742-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 31742-2023.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 31742-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 31742-2023.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 31742-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 31742-2023.docx", "A 31742-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 31742-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 31742-2023.docx", "A 31742-2023")</f>
         <v/>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12241,23 +12241,23 @@
       </c>
       <c r="R199" s="2" t="inlineStr"/>
       <c r="U199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/knärot/A 35491-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/knärot/A 35491-2023.png", "A 35491-2023")</f>
         <v/>
       </c>
       <c r="V199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 35491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomål/A 35491-2023.docx", "A 35491-2023")</f>
         <v/>
       </c>
       <c r="W199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 35491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/klagomålsmail/A 35491-2023.docx", "A 35491-2023")</f>
         <v/>
       </c>
       <c r="X199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 35491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsyn/A 35491-2023.docx", "A 35491-2023")</f>
         <v/>
       </c>
       <c r="Y199">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 35491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BOLLEBYGD/tillsynsmail/A 35491-2023.docx", "A 35491-2023")</f>
         <v/>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y203"/>
+  <dimension ref="A1:Y204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="R202" s="2" t="inlineStr"/>
     </row>
-    <row r="203">
+    <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
           <t>A 38525-2023</t>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12488,6 +12488,63 @@
         <v>0</v>
       </c>
       <c r="R203" s="2" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>A 44774-2023</t>
+        </is>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C204" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45190</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45190</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45190</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>

--- a/Översikt BOLLEBYGD.xlsx
+++ b/Översikt BOLLEBYGD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y204"/>
+  <dimension ref="A1:Y205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43346</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44173</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44370</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>43403</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43416</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44173</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45117</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43388</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43409</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>43426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43438</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>43443</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43451</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>43468</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43483</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43485</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43488</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43490</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43504</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43544</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43591</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43594</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43632</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43634</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43637</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43642</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43656</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43658</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43720</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43748</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43775</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43783</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43783</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43804</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43810</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43811</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43811</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43861</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43861</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43861</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43864</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43873</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43880</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43915</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43916</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43922</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43927</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43942</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43969</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43987</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43987</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43992</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43995</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>44006</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>44007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44018</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44018</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44022</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44053</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44061</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>44078</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>44082</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>44087</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>44087</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44088</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>44111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44153</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>44154</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44173</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44174</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44182</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>44200</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>44228</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>44228</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>44228</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44228</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>44228</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44230</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>44230</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44274</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>44280</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44363</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44363</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44383</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44418</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44418</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>44431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44449</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44459</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>44537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44585</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44602</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44637</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>44658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44683</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>44727</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>44729</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44732</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44764</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44775</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44777</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44825</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44846</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44848</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44868</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44879</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44879</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44879</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44881</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44883</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44900</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44946</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44966</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44981</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44981</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44994</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45029</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45034</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45034</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>45041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45051</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45058</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45070</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45070</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45071</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45112</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45112</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45112</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45112</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>45112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>45112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>45112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>45112</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>45112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
         <v>45112</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         <v>45117</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45117</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45117</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45119</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45147</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45149</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="R203" s="2" t="inlineStr"/>
     </row>
-    <row r="204">
+    <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
           <t>A 44774-2023</t>
@@ -12499,7 +12499,7 @@
         <v>45190</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12545,6 +12545,63 @@
         <v>0</v>
       </c>
       <c r="R204" s="2" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>A 47980-2023</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>BOLLEBYGD</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
